--- a/RASTA/Riassunto risultati.xlsx
+++ b/RASTA/Riassunto risultati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\PROJECTS\PROJECTS\RASTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9F747E-07AB-4B45-A6E7-FD800D919738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFCE834-305F-45ED-986F-F31E178B0181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7830B794-500C-46F1-B31C-217C0727780C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="272">
   <si>
     <t>Preprocessing</t>
   </si>
@@ -1045,6 +1045,255 @@
     <t>scheggia</t>
   </si>
   <si>
+    <t>CTM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Topic diversity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 0.99
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Coherence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: -0.49951772991586196</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Topic Diversity   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     Mean(model_runs): 0.977778
+num_iteration:  12
+activation: sigmoid
+num_layers: 2
+num_neurons:  200
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num_topics:  9</t>
+    </r>
+  </si>
+  <si>
+    <t>pressi</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>archeologica</t>
+  </si>
+  <si>
+    <t>faunistiche</t>
+  </si>
+  <si>
+    <t>pannelli</t>
+  </si>
+  <si>
+    <t>xiii</t>
+  </si>
+  <si>
+    <t>battista</t>
+  </si>
+  <si>
+    <t>giovanni</t>
+  </si>
+  <si>
+    <t>iniziata</t>
+  </si>
+  <si>
+    <t>xvii</t>
+  </si>
+  <si>
+    <t>nella</t>
+  </si>
+  <si>
+    <t>porta</t>
+  </si>
+  <si>
+    <t>urbano</t>
+  </si>
+  <si>
+    <t>monumento</t>
+  </si>
+  <si>
+    <t>tra</t>
+  </si>
+  <si>
+    <t>lato</t>
+  </si>
+  <si>
+    <t>una</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>dalla</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>dopo</t>
+  </si>
+  <si>
+    <t>naturale</t>
+  </si>
+  <si>
+    <t>costruito</t>
+  </si>
+  <si>
+    <t>sede</t>
+  </si>
+  <si>
+    <t>gia</t>
+  </si>
+  <si>
+    <t>pinacoteca</t>
+  </si>
+  <si>
+    <t>ospita</t>
+  </si>
+  <si>
+    <t>portone</t>
+  </si>
+  <si>
+    <t>longobarda</t>
+  </si>
+  <si>
+    <t>valorizzato</t>
+  </si>
+  <si>
+    <t>inconfondibile</t>
+  </si>
+  <si>
+    <t>piccinino</t>
+  </si>
+  <si>
+    <t>rosa</t>
+  </si>
+  <si>
+    <t>nunziatella</t>
+  </si>
+  <si>
+    <t>levatoio</t>
+  </si>
+  <si>
+    <t>accesso</t>
+  </si>
+  <si>
+    <t>abitati</t>
+  </si>
+  <si>
+    <t>tavernelle</t>
+  </si>
+  <si>
+    <t>conduce</t>
+  </si>
+  <si>
+    <t>casali</t>
+  </si>
+  <si>
+    <t>prato</t>
+  </si>
+  <si>
+    <t>madonna</t>
+  </si>
+  <si>
+    <t>adriatico</t>
+  </si>
+  <si>
+    <t>bianchi</t>
+  </si>
+  <si>
+    <t>casentinese</t>
+  </si>
+  <si>
+    <t>cipressi</t>
+  </si>
+  <si>
+    <t>champeaux</t>
+  </si>
+  <si>
+    <t>crocieraa</t>
+  </si>
+  <si>
+    <t>cittadino</t>
+  </si>
+  <si>
+    <t>rasina</t>
+  </si>
+  <si>
+    <t>incompleto</t>
+  </si>
+  <si>
+    <t>fruttati</t>
+  </si>
+  <si>
+    <t>tardoduecentesca</t>
+  </si>
+  <si>
+    <t>capriata</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1065,7 +1314,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                                          
-Mean(model_runs:-0.080664
+Mean(model_runs):-0.080664
 num_iteration: 23
 activation: sigmoid
 num_layers: 2
@@ -1084,12 +1333,52 @@
       <t>num_topics: 15</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Topic Coherence  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                          
+Mean(model_runs):
+num_iteration: 
+activation: 
+num_layers: 
+num_neurons : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">num_topics: </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1149,8 +1438,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF8F8F2"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1181,8 +1477,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1465,11 +1767,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1480,54 +1862,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1535,185 +1881,271 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2048,67 +2480,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF356A9-D21B-48BE-87E1-17D4C4C30CD0}">
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="S49" sqref="S49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M35" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52:U62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="17" width="10" customWidth="1"/>
+    <col min="8" max="17" width="11.44140625" customWidth="1"/>
     <col min="24" max="33" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
     </row>
     <row r="7" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
     </row>
     <row r="8" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
     </row>
     <row r="9" spans="1:33" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
@@ -2116,1997 +2548,2368 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
     </row>
     <row r="13" spans="1:33" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:33" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17">
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="7">
         <v>1</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="7">
         <v>2</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="7">
         <v>3</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="7">
         <v>4</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="7">
         <v>5</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="7">
         <v>6</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="7">
         <v>7</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="7">
         <v>8</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="7">
         <v>9</v>
       </c>
-      <c r="R14" s="18" t="s">
+      <c r="R14" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="20">
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="9">
         <v>0</v>
       </c>
-      <c r="Y14" s="20">
+      <c r="Y14" s="9">
         <v>1</v>
       </c>
-      <c r="Z14" s="20">
+      <c r="Z14" s="9">
         <v>2</v>
       </c>
-      <c r="AA14" s="20">
+      <c r="AA14" s="9">
         <v>3</v>
       </c>
-      <c r="AB14" s="20">
+      <c r="AB14" s="9">
         <v>4</v>
       </c>
-      <c r="AC14" s="20">
+      <c r="AC14" s="9">
         <v>5</v>
       </c>
-      <c r="AD14" s="20">
+      <c r="AD14" s="9">
         <v>6</v>
       </c>
-      <c r="AE14" s="20">
+      <c r="AE14" s="9">
         <v>7</v>
       </c>
-      <c r="AF14" s="20">
+      <c r="AF14" s="9">
         <v>8</v>
       </c>
-      <c r="AG14" s="21">
+      <c r="AG14" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="43" t="s">
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="50" t="s">
+      <c r="G15" s="111"/>
+      <c r="H15" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="N15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="O15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P15" s="16" t="s">
+      <c r="P15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="51" t="s">
+      <c r="Q15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="10" t="s">
+      <c r="R15" s="108"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="108"/>
+      <c r="V15" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="W15" s="11"/>
-      <c r="X15" s="45" t="s">
+      <c r="W15" s="101"/>
+      <c r="X15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Y15" s="19" t="s">
+      <c r="Y15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Z15" s="19" t="s">
+      <c r="Z15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AA15" s="19" t="s">
+      <c r="AA15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AB15" s="19" t="s">
+      <c r="AB15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AC15" s="19" t="s">
+      <c r="AC15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AD15" s="19" t="s">
+      <c r="AD15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AE15" s="19" t="s">
+      <c r="AE15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AF15" s="19" t="s">
+      <c r="AF15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AG15" s="46" t="s">
+      <c r="AG15" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="43" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="24" t="s">
+      <c r="G16" s="111"/>
+      <c r="H16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="O16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" s="52" t="s">
+      <c r="Q16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="10" t="s">
+      <c r="R16" s="108"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
+      <c r="V16" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="W16" s="11"/>
-      <c r="X16" s="47" t="s">
+      <c r="W16" s="101"/>
+      <c r="X16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Y16" s="8" t="s">
+      <c r="Y16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Z16" s="8" t="s">
+      <c r="Z16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA16" s="8" t="s">
+      <c r="AA16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AB16" s="8" t="s">
+      <c r="AB16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AC16" s="8" t="s">
+      <c r="AC16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AD16" s="8" t="s">
+      <c r="AD16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AE16" s="8" t="s">
+      <c r="AE16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AF16" s="8" t="s">
+      <c r="AF16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AG16" s="23" t="s">
+      <c r="AG16" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="43" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="24" t="s">
+      <c r="G17" s="111"/>
+      <c r="H17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q17" s="52" t="s">
+      <c r="Q17" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="10" t="s">
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="108"/>
+      <c r="V17" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="W17" s="11"/>
-      <c r="X17" s="47" t="s">
+      <c r="W17" s="101"/>
+      <c r="X17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Y17" s="8" t="s">
+      <c r="Y17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Z17" s="8" t="s">
+      <c r="Z17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AA17" s="8" t="s">
+      <c r="AA17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AB17" s="8" t="s">
+      <c r="AB17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AC17" s="8" t="s">
+      <c r="AC17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="8" t="s">
+      <c r="AD17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AE17" s="8" t="s">
+      <c r="AE17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF17" s="8" t="s">
+      <c r="AF17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AG17" s="23" t="s">
+      <c r="AG17" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="43" t="s">
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="24" t="s">
+      <c r="G18" s="111"/>
+      <c r="H18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="52" t="s">
+      <c r="Q18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="10" t="s">
+      <c r="R18" s="108"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="W18" s="11"/>
-      <c r="X18" s="47" t="s">
+      <c r="W18" s="101"/>
+      <c r="X18" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Y18" s="8" t="s">
+      <c r="Y18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Z18" s="8" t="s">
+      <c r="Z18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA18" s="8" t="s">
+      <c r="AA18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AB18" s="8" t="s">
+      <c r="AB18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AC18" s="8" t="s">
+      <c r="AC18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AD18" s="8" t="s">
+      <c r="AD18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AE18" s="8" t="s">
+      <c r="AE18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AF18" s="8" t="s">
+      <c r="AF18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AG18" s="23" t="s">
+      <c r="AG18" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="43" t="s">
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="25" t="s">
+      <c r="G19" s="111"/>
+      <c r="H19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="26" t="s">
+      <c r="L19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="26" t="s">
+      <c r="M19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="26" t="s">
+      <c r="N19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O19" s="26" t="s">
+      <c r="O19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="P19" s="26" t="s">
+      <c r="P19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="Q19" s="53" t="s">
+      <c r="Q19" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="10" t="s">
+      <c r="R19" s="108"/>
+      <c r="S19" s="108"/>
+      <c r="T19" s="108"/>
+      <c r="U19" s="108"/>
+      <c r="V19" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="W19" s="11"/>
-      <c r="X19" s="47" t="s">
+      <c r="W19" s="101"/>
+      <c r="X19" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Y19" s="8" t="s">
+      <c r="Y19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Z19" s="8" t="s">
+      <c r="Z19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA19" s="8" t="s">
+      <c r="AA19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AB19" s="8" t="s">
+      <c r="AB19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AC19" s="8" t="s">
+      <c r="AC19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AD19" s="8" t="s">
+      <c r="AD19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AE19" s="8" t="s">
+      <c r="AE19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AF19" s="8" t="s">
+      <c r="AF19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AG19" s="23" t="s">
+      <c r="AG19" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="54" t="s">
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="W20" s="55"/>
-      <c r="X20" s="48" t="s">
+      <c r="W20" s="103"/>
+      <c r="X20" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Y20" s="27" t="s">
+      <c r="Y20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="27" t="s">
+      <c r="Z20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AA20" s="27" t="s">
+      <c r="AA20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB20" s="27" t="s">
+      <c r="AB20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AC20" s="27" t="s">
+      <c r="AC20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AD20" s="27" t="s">
+      <c r="AD20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AE20" s="27" t="s">
+      <c r="AE20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AF20" s="27" t="s">
+      <c r="AF20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AG20" s="28" t="s">
+      <c r="AG20" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="23"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="11"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="23"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="105"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="11"/>
     </row>
     <row r="23" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="28"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="109"/>
+      <c r="S23" s="109"/>
+      <c r="T23" s="109"/>
+      <c r="U23" s="109"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="16"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="63"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="63"/>
-      <c r="AC24" s="63"/>
-      <c r="AD24" s="63"/>
-      <c r="AE24" s="63"/>
-      <c r="AF24" s="63"/>
-      <c r="AG24" s="63"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="86"/>
     </row>
     <row r="25" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="63"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="63"/>
-      <c r="AA26" s="63"/>
-      <c r="AB26" s="63"/>
-      <c r="AC26" s="63"/>
-      <c r="AD26" s="63"/>
-      <c r="AE26" s="63"/>
-      <c r="AF26" s="63"/>
-      <c r="AG26" s="63"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B27" s="71"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="63"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="H27" s="30"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="86"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="38" t="s">
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="63"/>
-      <c r="AA28" s="63"/>
-      <c r="AB28" s="63"/>
-      <c r="AC28" s="63"/>
-      <c r="AD28" s="63"/>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="63"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="122"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="86"/>
     </row>
     <row r="29" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="75"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="63"/>
-      <c r="AA29" s="63"/>
-      <c r="AB29" s="63"/>
-      <c r="AC29" s="63"/>
-      <c r="AD29" s="63"/>
-      <c r="AE29" s="63"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="63"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="124"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
     </row>
     <row r="30" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="82">
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32">
         <v>0</v>
       </c>
-      <c r="I30" s="82">
+      <c r="I30" s="32">
         <v>1</v>
       </c>
-      <c r="J30" s="82">
+      <c r="J30" s="32">
         <v>2</v>
       </c>
-      <c r="K30" s="82">
+      <c r="K30" s="32">
         <v>3</v>
       </c>
-      <c r="L30" s="82">
+      <c r="L30" s="32">
         <v>4</v>
       </c>
-      <c r="M30" s="82">
+      <c r="M30" s="32">
         <v>5</v>
       </c>
-      <c r="N30" s="82">
+      <c r="N30" s="32">
         <v>6</v>
       </c>
-      <c r="O30" s="82">
+      <c r="O30" s="32">
         <v>7</v>
       </c>
-      <c r="P30" s="82">
+      <c r="P30" s="32">
         <v>8</v>
       </c>
-      <c r="Q30" s="82">
+      <c r="Q30" s="32">
         <v>9</v>
       </c>
-      <c r="R30" s="95" t="s">
+      <c r="R30" s="128" t="s">
+        <v>270</v>
+      </c>
+      <c r="S30" s="129"/>
+      <c r="T30" s="129"/>
+      <c r="U30" s="129"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="42">
+        <v>2</v>
+      </c>
+      <c r="AA30" s="42">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="42">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="42">
+        <v>5</v>
+      </c>
+      <c r="AD30" s="42">
+        <v>6</v>
+      </c>
+      <c r="AE30" s="42">
+        <v>7</v>
+      </c>
+      <c r="AF30" s="42">
+        <v>8</v>
+      </c>
+      <c r="AG30" s="42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B31" s="127"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="115"/>
+      <c r="H31" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q31" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="R31" s="129"/>
+      <c r="S31" s="129"/>
+      <c r="T31" s="129"/>
+      <c r="U31" s="129"/>
+      <c r="V31" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="W31" s="131"/>
+      <c r="X31" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y31" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z31" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA31" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB31" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC31" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD31" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE31" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF31" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG31" s="45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B32" s="127"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="115"/>
+      <c r="H32" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q32" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="R32" s="129"/>
+      <c r="S32" s="129"/>
+      <c r="T32" s="129"/>
+      <c r="U32" s="129"/>
+      <c r="V32" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="W32" s="131"/>
+      <c r="X32" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y32" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z32" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA32" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB32" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC32" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD32" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE32" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF32" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG32" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="115"/>
+      <c r="H33" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="L33" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="N33" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="O33" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q33" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="R33" s="129"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="129"/>
+      <c r="U33" s="129"/>
+      <c r="V33" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="W33" s="131"/>
+      <c r="X33" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y33" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z33" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA33" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB33" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC33" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD33" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE33" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF33" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG33" s="47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B34" s="127"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="115"/>
+      <c r="H34" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="N34" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P34" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q34" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="R34" s="129"/>
+      <c r="S34" s="129"/>
+      <c r="T34" s="129"/>
+      <c r="U34" s="129"/>
+      <c r="V34" s="130" t="s">
+        <v>36</v>
+      </c>
+      <c r="W34" s="131"/>
+      <c r="X34" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y34" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z34" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA34" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB34" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC34" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD34" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE34" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF34" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG34" s="47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B35" s="127"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="115"/>
+      <c r="H35" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="L35" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="M35" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="N35" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q35" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="R35" s="129"/>
+      <c r="S35" s="129"/>
+      <c r="T35" s="129"/>
+      <c r="U35" s="129"/>
+      <c r="V35" s="130" t="s">
+        <v>37</v>
+      </c>
+      <c r="W35" s="131"/>
+      <c r="X35" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y35" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z35" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA35" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB35" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC35" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD35" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE35" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF35" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG35" s="47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="115"/>
+      <c r="H36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="L36" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="M36" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="N36" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="O36" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="P36" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q36" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="R36" s="129"/>
+      <c r="S36" s="129"/>
+      <c r="T36" s="129"/>
+      <c r="U36" s="129"/>
+      <c r="V36" s="132" t="s">
+        <v>38</v>
+      </c>
+      <c r="W36" s="133"/>
+      <c r="X36" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y36" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z36" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA36" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB36" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC36" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD36" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE36" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF36" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG36" s="47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="115"/>
+      <c r="H37" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="O37" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="P37" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q37" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="R37" s="129"/>
+      <c r="S37" s="129"/>
+      <c r="T37" s="129"/>
+      <c r="U37" s="129"/>
+      <c r="V37" s="130" t="s">
+        <v>39</v>
+      </c>
+      <c r="W37" s="131"/>
+      <c r="X37" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y37" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z37" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA37" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB37" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC37" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD37" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE37" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF37" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG37" s="47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="127"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="115"/>
+      <c r="H38" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="L38" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="N38" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="O38" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="P38" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q38" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="R38" s="129"/>
+      <c r="S38" s="129"/>
+      <c r="T38" s="129"/>
+      <c r="U38" s="129"/>
+      <c r="V38" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="W38" s="131"/>
+      <c r="X38" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y38" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z38" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA38" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB38" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC38" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD38" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE38" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF38" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG38" s="47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="129"/>
+      <c r="S39" s="129"/>
+      <c r="T39" s="129"/>
+      <c r="U39" s="129"/>
+      <c r="V39" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="W39" s="131"/>
+      <c r="X39" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y39" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z39" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA39" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB39" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC39" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD39" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE39" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF39" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG39" s="47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B40" s="127"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="129"/>
+      <c r="S40" s="129"/>
+      <c r="T40" s="129"/>
+      <c r="U40" s="129"/>
+      <c r="V40" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="W40" s="131"/>
+      <c r="X40" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y40" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z40" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA40" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB40" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC40" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD40" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE40" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF40" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG40" s="47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="W41" s="131"/>
+      <c r="X41" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y41" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z41" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA41" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB41" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC41" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD41" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE41" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF41" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG41" s="47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="W42" s="133"/>
+      <c r="X42" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y42" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z42" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA42" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB42" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC42" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD42" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE42" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF42" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG42" s="47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="130" t="s">
+        <v>46</v>
+      </c>
+      <c r="W43" s="131"/>
+      <c r="X43" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y43" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z43" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA43" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB43" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC43" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD43" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE43" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF43" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG43" s="47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="130" t="s">
+        <v>47</v>
+      </c>
+      <c r="W44" s="131"/>
+      <c r="X44" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y44" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z44" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA44" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB44" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC44" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD44" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE44" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF44" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG44" s="47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="130" t="s">
+        <v>48</v>
+      </c>
+      <c r="W45" s="131"/>
+      <c r="X45" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y45" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z45" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA45" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB45" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC45" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD45" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE45" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF45" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG45" s="50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B48" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="97"/>
-      <c r="W30" s="97"/>
-      <c r="X30" s="98">
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="52"/>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B49" s="83"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="H49" s="53"/>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B50" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="71"/>
+      <c r="H50" s="89"/>
+    </row>
+    <row r="51" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="87"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="91"/>
+    </row>
+    <row r="52" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="55">
         <v>0</v>
       </c>
-      <c r="Y30" s="98">
+      <c r="I52" s="55">
         <v>1</v>
       </c>
-      <c r="Z30" s="98">
+      <c r="J52" s="55">
         <v>2</v>
       </c>
-      <c r="AA30" s="98">
+      <c r="K52" s="55">
         <v>3</v>
       </c>
-      <c r="AB30" s="98">
+      <c r="L52" s="55">
         <v>4</v>
       </c>
-      <c r="AC30" s="98">
+      <c r="M52" s="55">
         <v>5</v>
       </c>
-      <c r="AD30" s="98">
+      <c r="N52" s="55">
         <v>6</v>
       </c>
-      <c r="AE30" s="98">
+      <c r="O52" s="55">
         <v>7</v>
       </c>
-      <c r="AF30" s="98">
+      <c r="P52" s="55">
         <v>8</v>
       </c>
-      <c r="AG30" s="98">
+      <c r="Q52" s="55">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84" t="s">
+      <c r="R52" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="S52" s="67"/>
+      <c r="T52" s="67"/>
+      <c r="U52" s="67"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="85"/>
-      <c r="H31" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="M31" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="N31" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="O31" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="P31" s="87" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q31" s="88" t="s">
+      <c r="G53" s="65"/>
+      <c r="H53" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="I53" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="J53" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="K53" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="M53" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="N53" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="O53" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="P53" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q53" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="R53" s="67"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="67"/>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="65"/>
+      <c r="H54" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="K54" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="L54" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="M54" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="N54" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="O54" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="P54" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q54" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="67"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="65"/>
+      <c r="H55" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="K55" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="L55" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="W31" s="100"/>
-      <c r="X31" s="101" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y31" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z31" s="102" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA31" s="102" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB31" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC31" s="102" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD31" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE31" s="102" t="s">
+      <c r="M55" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="N55" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="O55" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="P55" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q55" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="R55" s="67"/>
+      <c r="S55" s="67"/>
+      <c r="T55" s="67"/>
+      <c r="U55" s="67"/>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" s="65"/>
+      <c r="H56" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="K56" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="N56" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="O56" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="P56" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q56" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="R56" s="67"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="67"/>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="65"/>
+      <c r="H57" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="I57" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="J57" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="K57" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="L57" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="M57" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="N57" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="O57" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="P57" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q57" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="R57" s="67"/>
+      <c r="S57" s="67"/>
+      <c r="T57" s="67"/>
+      <c r="U57" s="67"/>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="65"/>
+      <c r="H58" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="I58" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="L58" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="M58" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="N58" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="O58" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="P58" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="AF31" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG31" s="103" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="85"/>
-      <c r="H32" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="N32" s="90" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="P32" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q32" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="W32" s="100"/>
-      <c r="X32" s="104" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y32" s="105" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z32" s="105" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA32" s="105" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB32" s="105" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC32" s="105" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD32" s="105" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE32" s="105" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF32" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG32" s="106" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="85"/>
-      <c r="H33" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="J33" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="L33" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="M33" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="N33" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="O33" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="P33" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q33" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="W33" s="100"/>
-      <c r="X33" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y33" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z33" s="105" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA33" s="105" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB33" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC33" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD33" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE33" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF33" s="105" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG33" s="106" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="85"/>
-      <c r="H34" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="J34" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="L34" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="M34" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="N34" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="O34" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="P34" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q34" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="R34" s="96"/>
-      <c r="S34" s="96"/>
-      <c r="T34" s="96"/>
-      <c r="U34" s="96"/>
-      <c r="V34" s="99" t="s">
-        <v>36</v>
-      </c>
-      <c r="W34" s="100"/>
-      <c r="X34" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y34" s="105" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z34" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA34" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB34" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC34" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD34" s="105" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE34" s="105" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF34" s="105" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG34" s="106" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="85"/>
-      <c r="H35" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="J35" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="K35" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="L35" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="M35" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="N35" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="O35" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q35" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="R35" s="96"/>
-      <c r="S35" s="96"/>
-      <c r="T35" s="96"/>
-      <c r="U35" s="96"/>
-      <c r="V35" s="99" t="s">
-        <v>37</v>
-      </c>
-      <c r="W35" s="100"/>
-      <c r="X35" s="104" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y35" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z35" s="105" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA35" s="105" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB35" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC35" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD35" s="105" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE35" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF35" s="105" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG35" s="106" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="85"/>
-      <c r="H36" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="J36" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="K36" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="L36" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="M36" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="N36" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="O36" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="P36" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q36" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="R36" s="96"/>
-      <c r="S36" s="96"/>
-      <c r="T36" s="96"/>
-      <c r="U36" s="96"/>
-      <c r="V36" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="W36" s="108"/>
-      <c r="X36" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y36" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z36" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA36" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB36" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC36" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD36" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE36" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF36" s="105" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG36" s="106" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="84" t="s">
+      <c r="Q58" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="85"/>
-      <c r="H37" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="J37" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="L37" s="90" t="s">
-        <v>5</v>
-      </c>
-      <c r="M37" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="N37" s="90" t="s">
-        <v>103</v>
-      </c>
-      <c r="O37" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="P37" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q37" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="R37" s="96"/>
-      <c r="S37" s="96"/>
-      <c r="T37" s="96"/>
-      <c r="U37" s="96"/>
-      <c r="V37" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="W37" s="100"/>
-      <c r="X37" s="104" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y37" s="105" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z37" s="105" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA37" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB37" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC37" s="105" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD37" s="105" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE37" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF37" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG37" s="106" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="84" t="s">
+      <c r="G59" s="65"/>
+      <c r="H59" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="I59" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="J59" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="K59" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="L59" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="M59" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="N59" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="O59" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="P59" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q59" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="85"/>
-      <c r="H38" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="I38" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="L38" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="M38" s="93" t="s">
-        <v>110</v>
-      </c>
-      <c r="N38" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="O38" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="P38" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q38" s="94" t="s">
-        <v>114</v>
-      </c>
-      <c r="R38" s="96"/>
-      <c r="S38" s="96"/>
-      <c r="T38" s="96"/>
-      <c r="U38" s="96"/>
-      <c r="V38" s="99" t="s">
-        <v>40</v>
-      </c>
-      <c r="W38" s="100"/>
-      <c r="X38" s="104" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y38" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z38" s="105" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA38" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB38" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC38" s="105" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD38" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE38" s="105" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF38" s="105" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG38" s="106" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="96"/>
-      <c r="V39" s="99" t="s">
+      <c r="G60" s="65"/>
+      <c r="H60" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="I60" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="J60" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="K60" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="L60" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="M60" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="N60" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="O60" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="P60" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q60" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="R60" s="67"/>
+      <c r="S60" s="67"/>
+      <c r="T60" s="67"/>
+      <c r="U60" s="67"/>
+    </row>
+    <row r="61" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="W39" s="100"/>
-      <c r="X39" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y39" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z39" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA39" s="105" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB39" s="105" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC39" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD39" s="105" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE39" s="105" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF39" s="105" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG39" s="106" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="96"/>
-      <c r="S40" s="96"/>
-      <c r="T40" s="96"/>
-      <c r="U40" s="96"/>
-      <c r="V40" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="W40" s="100"/>
-      <c r="X40" s="104" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y40" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z40" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA40" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB40" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC40" s="105" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD40" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE40" s="105" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF40" s="105" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG40" s="106" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="97"/>
-      <c r="S41" s="97"/>
-      <c r="T41" s="97"/>
-      <c r="U41" s="97"/>
-      <c r="V41" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="W41" s="100"/>
-      <c r="X41" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y41" s="105" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z41" s="105" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA41" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB41" s="105" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC41" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD41" s="105" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE41" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF41" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG41" s="106" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
-      <c r="O42" s="81"/>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="97"/>
-      <c r="S42" s="97"/>
-      <c r="T42" s="97"/>
-      <c r="U42" s="97"/>
-      <c r="V42" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="W42" s="108"/>
-      <c r="X42" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y42" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z42" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA42" s="105" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB42" s="105" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC42" s="105" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD42" s="105" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE42" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF42" s="105" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG42" s="106" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="97"/>
-      <c r="S43" s="97"/>
-      <c r="T43" s="97"/>
-      <c r="U43" s="97"/>
-      <c r="V43" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="W43" s="100"/>
-      <c r="X43" s="104" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y43" s="105" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z43" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA43" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB43" s="105" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC43" s="105" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD43" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE43" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF43" s="105" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG43" s="106" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="97"/>
-      <c r="S44" s="97"/>
-      <c r="T44" s="97"/>
-      <c r="U44" s="97"/>
-      <c r="V44" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="W44" s="100"/>
-      <c r="X44" s="104" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y44" s="105" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z44" s="105" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA44" s="105" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB44" s="105" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC44" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD44" s="105" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE44" s="105" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF44" s="105" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG44" s="106" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="97"/>
-      <c r="S45" s="97"/>
-      <c r="T45" s="97"/>
-      <c r="U45" s="97"/>
-      <c r="V45" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="W45" s="100"/>
-      <c r="X45" s="109" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y45" s="110" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z45" s="110" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA45" s="110" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB45" s="110" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC45" s="110" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD45" s="110" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE45" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF45" s="110" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG45" s="111" t="s">
-        <v>212</v>
-      </c>
+      <c r="G61" s="65"/>
+      <c r="H61" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="I61" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="J61" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="K61" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="L61" s="62" t="s">
+        <v>265</v>
+      </c>
+      <c r="M61" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="N61" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="O61" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="P61" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q61" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="R61" s="67"/>
+      <c r="S61" s="67"/>
+      <c r="T61" s="67"/>
+      <c r="U61" s="67"/>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="67"/>
+      <c r="T62" s="67"/>
+      <c r="U62" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="75">
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="F33:G33"/>
     <mergeCell ref="V41:W41"/>
     <mergeCell ref="V42:W42"/>
     <mergeCell ref="V43:W43"/>
     <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B30:E40"/>
     <mergeCell ref="R30:U40"/>
     <mergeCell ref="V31:W31"/>
     <mergeCell ref="V32:W32"/>
@@ -4118,15 +4921,6 @@
     <mergeCell ref="V38:W38"/>
     <mergeCell ref="V39:W39"/>
     <mergeCell ref="V40:W40"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B26:E27"/>
-    <mergeCell ref="B28:E29"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="F31:G31"/>
     <mergeCell ref="R14:U23"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
@@ -4160,6 +4954,31 @@
     <mergeCell ref="B10:E11"/>
     <mergeCell ref="F12:H13"/>
     <mergeCell ref="B14:E23"/>
+    <mergeCell ref="B48:E49"/>
+    <mergeCell ref="B50:E51"/>
+    <mergeCell ref="F50:H51"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B26:E27"/>
+    <mergeCell ref="B28:E29"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B30:E40"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="R52:U62"/>
+    <mergeCell ref="B52:E61"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
